--- a/数据整理/stocks/A股/上证主板/603690-至纯科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603690-至纯科技.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>89.16</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.90</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7862</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005855</t>
+          <t>006154</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中科沃土沃瑞灵活配置混合A</t>
+          <t>华安制造先锋混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.93</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005856</t>
+          <t>005444</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中科沃土沃瑞灵活配置混合C</t>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.93</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>51.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006154</t>
+          <t>005855</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华安制造先锋混合</t>
+          <t>中科沃土沃瑞灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92.03</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005444</t>
+          <t>005856</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+          <t>中科沃土沃瑞灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>51.25</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -637,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,15 +718,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -678,26 +748,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005855</t>
+          <t>360006</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中科沃土沃瑞灵活配置混合A</t>
+          <t>光大保德信新增长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>82.16</t>
+          <t>23.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9326</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -706,26 +786,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005856</t>
+          <t>001740</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中科沃土沃瑞灵活配置混合C</t>
+          <t>光大保德信中国制造2025灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>82.16</t>
+          <t>11.65</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4625</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -734,26 +824,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>360006</t>
+          <t>010130</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>光大保德信新增长混合</t>
+          <t>海富通惠增多策略一年定期开放灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>89.85</t>
+          <t>10.30</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>57.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2513</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -762,26 +862,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010130</t>
+          <t>005444</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>海富通惠增多策略一年定期开放灵活配置混合A</t>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>57.83</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>75.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -790,26 +900,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010131</t>
+          <t>005855</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>海富通惠增多策略一年定期开放灵活配置混合C</t>
+          <t>中科沃土沃瑞灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>57.83</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>82.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -818,26 +938,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001740</t>
+          <t>005856</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>光大保德信中国制造2025灵活配置混合</t>
+          <t>中科沃土沃瑞灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.52</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>82.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -846,26 +976,30 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005444</t>
+          <t>010131</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>75.95</t>
-        </is>
-      </c>
+          <t>海富通惠增多策略一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
+          <t>57.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603690-至纯科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603690-至纯科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -984,7 +985,6 @@
           <t>海富通惠增多策略一年定期开放灵活配置混合C</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>57.83</t>
@@ -1000,6 +1000,630 @@
       </c>
       <c r="H8" t="n">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1727</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011104</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>光大保德信智能汽车主题股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>55.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9709</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4933</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010130</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>68.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3514</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008313</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大保德信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010676</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大保德信新机遇混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>66.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1213</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002411</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160324</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏磐晟灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010663</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011377</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008212</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010664</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011378</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010131</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>68.11</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603690-至纯科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603690-至纯科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1629,4 +1630,934 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0699</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009993</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实前沿创新混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0412</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011104</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大保德信智能汽车主题股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7764</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007343</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实科技创新混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4826</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001039</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实先进制造股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3994</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001210</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘互联网灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3390</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519957</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>22.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2911</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519956</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>22.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2908</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008655</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2627</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1184</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011501</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>28.69</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010237</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008656</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160323</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏磐泰混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>28.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160324</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏磐晟灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010238</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>710002</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富安达策略精选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011377</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011378</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006689</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.88</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008182</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>方正富邦信泓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.88</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011502</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>28.69</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603690-至纯科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603690-至纯科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2560,4 +2561,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603690-至纯科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603690-至纯科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2569,7 +2570,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2580,17 +2581,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2600,14 +2621,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.56</v>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9634</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2616,14 +2659,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.42</v>
+          <t>011104</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>光大保德信智能汽车主题股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7216</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2632,14 +2697,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.73</v>
+          <t>001210</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘互联网灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2692</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2648,13 +2735,303 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>012210</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1448</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012211</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160323</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏磐泰混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>27.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006181</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006182</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603690-至纯科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603690-至纯科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2930,7 +2931,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2941,17 +2942,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2961,14 +2982,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.26</v>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8814</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2977,14 +3020,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>23</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.56</v>
+          <t>011104</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>光大保德信智能汽车主题股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5503</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2993,14 +3058,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.42</v>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3669</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -3009,14 +3096,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.73</v>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>72.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1215</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -3025,13 +3134,357 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>72.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002630</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>43.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002631</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>43.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>72.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603690-至纯科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603690-至纯科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3367,7 +3368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3378,17 +3379,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3398,14 +3419,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8866</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.11</v>
       </c>
     </row>
     <row r="3">
@@ -3414,14 +3457,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.26</v>
+          <t>007047</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城核心优势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>68.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -3430,14 +3495,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>23</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.56</v>
+          <t>002630</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>43.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -3446,14 +3533,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>15</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.42</v>
+          <t>002631</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>43.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -3462,14 +3571,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>7</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.73</v>
+          <t>014319</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>德邦半导体产业混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -3478,13 +3609,259 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>006181</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006182</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014320</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>德邦半导体产业混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603690-至纯科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603690-至纯科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>1.02</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>2.11</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>2.26</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>5.56</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>3.42</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>1.73</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>5</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.9</v>
       </c>
     </row>
@@ -600,6 +617,708 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007340</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9805</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007341</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1875</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>671030</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>西部利得事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1372</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014320</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>德邦半导体产业混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>015056</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>百嘉百盛混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>62.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015043</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>西部利得时代动力混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014319</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>德邦半导体产业混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006522</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013903</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰君安信息行业混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>71.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>015044</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>西部利得时代动力混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006182</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006181</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006458</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>77.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006718</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>60.25</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006523</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006719</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>60.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006457</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>77.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -959,7 +1678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1395,7 +2114,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1755,7 +2474,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2685,7 +3404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3309,7 +4028,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3624,7 +4343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603690-至纯科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603690-至纯科技.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>1.5</v>
+        <v>4.69</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>1.02</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>2.11</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>2.26</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>5.56</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D7" t="n">
-        <v>3.42</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>1.73</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>5</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.9</v>
       </c>
     </row>
@@ -616,7 +633,917 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7862</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006154</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安制造先锋混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>51.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005855</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005856</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007193</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0228</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006299</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8809</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010622</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>68.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5702</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012846</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>恒越蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3918</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013840</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华集成电路混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3866</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013841</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华集成电路混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3349</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010701</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3078</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010623</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>68.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2413</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006049</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>恒越研究精选混合A/B</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2356</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007192</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>恒越研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1777</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010702</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007047</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长城核心优势混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.80</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>016380</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006181</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006182</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>016381</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1318,7 +2245,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1678,7 +2605,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2114,7 +3041,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2474,7 +3401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3404,7 +4331,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4028,7 +4955,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4341,250 +5268,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>360006</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>光大保德信新增长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>20.16</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.16</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.7862</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006154</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华安制造先锋混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.03</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0442</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005444</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>51.25</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0413</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005855</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中科沃土沃瑞灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.93</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0251</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005856</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中科沃土沃瑞灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.93</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0060</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>